--- a/biology/Zoologie/Cyamidae/Cyamidae.xlsx
+++ b/biology/Zoologie/Cyamidae/Cyamidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentants de la famille des Cyamidae, connus sous le nom de « poux des baleines », sont des ectoparasites obligatoires des cétacés sur lesquels se déroule la totalité de leur cycle. Ce sont des amphipodes (c'est-à-dire des crustacés parents des puces de mer) proches des caprelles.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille des Cyamidae compte une trentaine d'espèces réparties en 7 genres.
-Selon NCBI  (12 mars 2012)[1] :
+Selon NCBI  (12 mars 2012) :
 genre Cyamus
 genre Isocyamus
-Selon ITIS      (12 mars 2012)[2] &amp; Catalogue of Life                                   (12 mars 2012)[3] :
+Selon ITIS      (12 mars 2012) &amp; Catalogue of Life                                   (12 mars 2012) :
 genre Cyamus Latreille, 1796
 genre Isocyamus Gervais &amp; Van Beneden, 1859
 genre Neocyamus Margolis, 1955
